--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\protocol\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C90D9063-694B-450C-923E-EE9C7F69D857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6644A18-530F-47CE-8D74-1BCD9FA013C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3840" yWindow="2805" windowWidth="21600" windowHeight="11295"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="CategoryFilter">Results!#REF!</definedName>
     <definedName name="CLUB">Results!#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$BZ$91</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$BZ$83</definedName>
     <definedName name="demandé">Results!#REF!</definedName>
     <definedName name="dernier">Results!#REF!</definedName>
     <definedName name="essais">Results!#REF!</definedName>
@@ -55,24 +55,12 @@
     <definedName name="TAS">Results!#REF!</definedName>
     <definedName name="tirage">Results!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="145621" fullCalcOnLoad="1" iterate="1"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621" iterate="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="100">
-  <si>
-    <t xml:space="preserve"> </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
   <si>
     <t>&lt;jx:forEach items="${lifters}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
@@ -149,18 +137,6 @@
     <t>${competition.federationWebSite}</t>
   </si>
   <si>
-    <t>${session.timeKeeper}</t>
-  </si>
-  <si>
-    <t>${session.referee1}</t>
-  </si>
-  <si>
-    <t>${session.referee2}</t>
-  </si>
-  <si>
-    <t>${session.referee3}</t>
-  </si>
-  <si>
     <t>${competition.competitionSite}</t>
   </si>
   <si>
@@ -176,9 +152,6 @@
     <t>${l.rank &lt; 0 ? "inv." : (l.rank &gt; 0 ? l.medalRank : "" )}</t>
   </si>
   <si>
-    <t>${session.announcer}</t>
-  </si>
-  <si>
     <t>${l.sinclair}</t>
   </si>
   <si>
@@ -254,30 +227,6 @@
     <t>${t.get("smm")}</t>
   </si>
   <si>
-    <t>${t.get("Results.Controller")}</t>
-  </si>
-  <si>
-    <t>${t.get("Announcer")}</t>
-  </si>
-  <si>
-    <t>${t.get("Marshall")}</t>
-  </si>
-  <si>
-    <t>${t.get("Timekeeper")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee1")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee2")}</t>
-  </si>
-  <si>
-    <t>${t.get("Referee3")}</t>
-  </si>
-  <si>
-    <t>${t.get("Jury")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.Sinclair")}</t>
   </si>
   <si>
@@ -347,18 +296,6 @@
     <t>&lt;/jx:if&gt;</t>
   </si>
   <si>
-    <t>${session.marshall} ${session.marshal2}</t>
-  </si>
-  <si>
-    <t>${t.get("JuryPresident")}</t>
-  </si>
-  <si>
-    <t>${session.jury1}</t>
-  </si>
-  <si>
-    <t>${session.jury2} ${session.jury3} ${session.jury4} ${session.jury5}</t>
-  </si>
-  <si>
     <t>${r.bwCatString}</t>
   </si>
   <si>
@@ -366,23 +303,19 @@
   </si>
   <si>
     <t>${r.resRecordLift}</t>
-  </si>
-  <si>
-    <t>${session.technicalController} ${session.technicalController2}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="5">
-    <numFmt numFmtId="181" formatCode="0.0;;"/>
-    <numFmt numFmtId="183" formatCode="_-#,##0;[Red]\(#,##0\);\-"/>
-    <numFmt numFmtId="190" formatCode="0;\(0\);\-"/>
-    <numFmt numFmtId="193" formatCode="0.000;;\-"/>
-    <numFmt numFmtId="196" formatCode="0;;\-;@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.0;;"/>
+    <numFmt numFmtId="165" formatCode="0;\(0\);\-"/>
+    <numFmt numFmtId="166" formatCode="0.000;;\-"/>
+    <numFmt numFmtId="167" formatCode="0;;\-;@"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -466,12 +399,6 @@
     <font>
       <b/>
       <sz val="7"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -872,7 +799,7 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -880,41 +807,25 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -923,60 +834,56 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="190" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="196" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="193" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="193" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="17" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -989,13 +896,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="1" fontId="12" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1007,11 +914,11 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="10" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1021,13 +928,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -1053,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1063,84 +970,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="183" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1158,91 +1018,82 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="12" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="12" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="14" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="12" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="12" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="14" fillId="0" borderId="0" xfId="12" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="15" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="15" xfId="12" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1253,18 +1104,18 @@
     <cellStyle name="Accent4" xfId="4" builtinId="41" customBuiltin="1"/>
     <cellStyle name="Accent5" xfId="5" builtinId="45" customBuiltin="1"/>
     <cellStyle name="Accent6" xfId="6" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Emphase 1" xfId="7"/>
-    <cellStyle name="Emphase 2" xfId="8"/>
-    <cellStyle name="Emphase 3" xfId="9"/>
+    <cellStyle name="Emphase 1" xfId="7" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Emphase 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="Emphase 3" xfId="9" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
-    <cellStyle name="Lien hypertexte 2" xfId="11"/>
+    <cellStyle name="Lien hypertexte 2" xfId="11" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="12"/>
-    <cellStyle name="Normal 3" xfId="13"/>
-    <cellStyle name="Titre 1" xfId="14"/>
-    <cellStyle name="Titre 1 1" xfId="15"/>
-    <cellStyle name="Titre 1 1 1" xfId="16"/>
-    <cellStyle name="Titre de la feuille" xfId="17"/>
+    <cellStyle name="Normal 2" xfId="12" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="Normal 3" xfId="13" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="Titre 1" xfId="14" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="Titre 1 1" xfId="15" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="Titre 1 1 1" xfId="16" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="Titre de la feuille" xfId="17" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
     <cellStyle name="Total" xfId="18" builtinId="25" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="4">
@@ -1728,14 +1579,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X117"/>
+  <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S21" sqref="S21"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1745,261 +1596,250 @@
     <col min="3" max="3" width="5.28515625" customWidth="1"/>
     <col min="4" max="4" width="22.7109375" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
     <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
     <col min="11" max="12" width="7.7109375" style="1" customWidth="1"/>
     <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="4" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" style="3" customWidth="1"/>
     <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
     <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="7.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
     <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
     <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="1" style="5" customWidth="1"/>
+    <col min="23" max="23" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" s="25"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="25"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="25"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="28"/>
+      <c r="X1" s="1"/>
+    </row>
+    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
-      <c r="O1" s="37"/>
-      <c r="P1" s="37"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="37"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="1"/>
-      <c r="X1" s="1"/>
-    </row>
-    <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="39" t="s">
-        <v>24</v>
-      </c>
-      <c r="B2" s="40"/>
-      <c r="C2" s="41"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31"/>
       <c r="E2"/>
       <c r="F2"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="43"/>
-      <c r="N2" s="37"/>
-      <c r="O2" s="44"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="S2" s="47" t="s">
-        <v>20</v>
-      </c>
-      <c r="T2" s="48"/>
-      <c r="U2" s="48"/>
-      <c r="W2" s="1"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="58" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="32"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="35"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="S2" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
       <c r="X2" s="1"/>
     </row>
     <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="50"/>
+      <c r="A3" s="39" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="40"/>
       <c r="E3"/>
       <c r="F3"/>
       <c r="H3" s="1"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="K3" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="46"/>
-      <c r="R3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="S3" s="51" t="s">
-        <v>21</v>
-      </c>
-      <c r="T3" s="52"/>
-      <c r="U3" s="52"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="1"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="58" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="32"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="27"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="35"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="S3" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="43"/>
       <c r="X3" s="1"/>
     </row>
     <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="49" t="s">
-        <v>31</v>
-      </c>
-      <c r="B4" s="49"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
+      <c r="A4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45"/>
       <c r="F4"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="K4" s="81" t="s">
-        <v>22</v>
-      </c>
-      <c r="L4" s="17"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="83"/>
-      <c r="O4" s="83"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>21</v>
+      </c>
+      <c r="L4"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="1"/>
       <c r="Q4"/>
-      <c r="R4" s="34"/>
-      <c r="S4" s="56"/>
-      <c r="T4" s="1"/>
-      <c r="W4" s="1"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="46"/>
       <c r="X4" s="1"/>
     </row>
     <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="K5" s="72"/>
-      <c r="L5" s="72"/>
-      <c r="M5" s="73"/>
-      <c r="N5" s="80"/>
-      <c r="O5" s="72"/>
-      <c r="W5" s="12"/>
-      <c r="X5"/>
-    </row>
-    <row r="6" spans="1:24" s="9" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="57"/>
+      <c r="K5" s="56"/>
+      <c r="L5" s="56"/>
+      <c r="M5" s="57"/>
+      <c r="N5" s="26"/>
+      <c r="O5" s="56"/>
+    </row>
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="47"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="58"/>
-      <c r="D6"/>
+      <c r="C6" s="48"/>
       <c r="E6"/>
       <c r="F6"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="118" t="s">
+      <c r="H6" s="47"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="47"/>
+      <c r="K6" s="99" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="101"/>
+      <c r="M6" s="100"/>
+      <c r="N6" s="49" t="s">
+        <v>40</v>
+      </c>
+      <c r="O6" s="99" t="s">
+        <v>41</v>
+      </c>
+      <c r="P6" s="101"/>
+      <c r="Q6" s="100"/>
+      <c r="R6" s="50" t="s">
+        <v>40</v>
+      </c>
+      <c r="S6" s="93" t="s">
+        <v>42</v>
+      </c>
+      <c r="T6" s="91" t="s">
+        <v>53</v>
+      </c>
+      <c r="U6" s="95" t="s">
+        <v>55</v>
+      </c>
+      <c r="V6" s="97" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="51" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="L6" s="119"/>
-      <c r="M6" s="120"/>
-      <c r="N6" s="59" t="s">
+      <c r="D7" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="O6" s="118" t="s">
+      <c r="E7" s="99" t="s">
         <v>47</v>
       </c>
-      <c r="P6" s="119"/>
-      <c r="Q6" s="120"/>
-      <c r="R6" s="60" t="s">
-        <v>46</v>
-      </c>
-      <c r="S6" s="123" t="s">
+      <c r="F7" s="100"/>
+      <c r="G7" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="T6" s="121" t="s">
-        <v>59</v>
-      </c>
-      <c r="U6" s="125" t="s">
-        <v>69</v>
-      </c>
-      <c r="V6" s="127" t="s">
-        <v>60</v>
-      </c>
-      <c r="W6" s="7"/>
-    </row>
-    <row r="7" spans="1:24" s="7" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
+      <c r="H7" s="51" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="I7" s="53" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="61" t="s">
+      <c r="J7" s="51" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="61" t="s">
+      <c r="K7" s="51">
+        <v>1</v>
+      </c>
+      <c r="L7" s="51">
+        <v>2</v>
+      </c>
+      <c r="M7" s="51">
+        <v>3</v>
+      </c>
+      <c r="N7" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E7" s="118" t="s">
-        <v>53</v>
-      </c>
-      <c r="F7" s="120"/>
-      <c r="G7" s="62" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="61" t="s">
-        <v>55</v>
-      </c>
-      <c r="I7" s="63" t="s">
+      <c r="O7" s="51">
+        <v>1</v>
+      </c>
+      <c r="P7" s="51">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="51">
+        <v>3</v>
+      </c>
+      <c r="R7" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="J7" s="61" t="s">
-        <v>57</v>
-      </c>
-      <c r="K7" s="61">
-        <v>1</v>
-      </c>
-      <c r="L7" s="61">
-        <v>2</v>
-      </c>
-      <c r="M7" s="61">
-        <v>3</v>
-      </c>
-      <c r="N7" s="64" t="s">
-        <v>58</v>
-      </c>
-      <c r="O7" s="61">
-        <v>1</v>
-      </c>
-      <c r="P7" s="61">
-        <v>2</v>
-      </c>
-      <c r="Q7" s="61">
-        <v>3</v>
-      </c>
-      <c r="R7" s="65" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="124"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="126"/>
-      <c r="V7" s="128"/>
+      <c r="S7" s="94"/>
+      <c r="T7" s="92"/>
+      <c r="U7" s="96"/>
+      <c r="V7" s="98"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8"/>
       <c r="F8"/>
@@ -2018,83 +1858,82 @@
       <c r="U8"/>
       <c r="V8"/>
       <c r="W8"/>
-      <c r="X8"/>
-    </row>
-    <row r="9" spans="1:24" s="16" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="E9" s="89" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="90"/>
+      <c r="G9" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="J9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="129" t="s">
-        <v>6</v>
-      </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="30" t="s">
+      <c r="K9" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R9" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="S9" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="J9" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="K9" s="21" t="s">
-        <v>12</v>
-      </c>
-      <c r="L9" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="O9" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="P9" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q9" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="R9" s="23" t="s">
+      <c r="T9" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="U9" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="S9" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="T9" s="25" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="V9" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="W9" s="15" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10"/>
-      <c r="F10" s="17"/>
+      <c r="F10"/>
       <c r="G10"/>
       <c r="H10"/>
       <c r="I10"/>
@@ -2105,13 +1944,11 @@
       <c r="O10"/>
       <c r="P10"/>
       <c r="Q10"/>
-      <c r="R10" s="17"/>
       <c r="S10"/>
       <c r="T10"/>
       <c r="U10"/>
       <c r="V10"/>
       <c r="W10"/>
-      <c r="X10"/>
     </row>
     <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E11"/>
@@ -2130,11 +1967,10 @@
       <c r="U11"/>
       <c r="V11"/>
       <c r="W11"/>
-      <c r="X11"/>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -2152,720 +1988,503 @@
       <c r="U12"/>
       <c r="V12"/>
       <c r="W12"/>
-      <c r="X12"/>
-    </row>
-    <row r="13" spans="1:24" s="31" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="31" t="s">
+    </row>
+    <row r="13" spans="1:24" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A13" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="J13" s="22"/>
+    </row>
+    <row r="14" spans="1:24" s="21" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="59"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
+      <c r="J14" s="60"/>
+      <c r="K14" s="59"/>
+      <c r="L14" s="59"/>
+      <c r="M14" s="59"/>
+      <c r="N14" s="59"/>
+      <c r="O14" s="59"/>
+      <c r="P14" s="60"/>
+      <c r="Q14" s="60"/>
+      <c r="R14" s="60"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="59"/>
+      <c r="U14" s="60"/>
+      <c r="V14" s="60"/>
+    </row>
+    <row r="15" spans="1:24" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A15" s="61" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="64" t="s">
+        <v>61</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>62</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>48</v>
+      </c>
+      <c r="G15" s="66" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="67"/>
+      <c r="I15" s="64" t="s">
+        <v>64</v>
+      </c>
+      <c r="J15" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="K15" s="68"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="63"/>
+      <c r="N15" s="61" t="s">
+        <v>50</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="69"/>
+      <c r="Q15" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" s="62"/>
+      <c r="S15" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="T15" s="68"/>
+      <c r="U15" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="V15" s="69"/>
+      <c r="X15" s="63"/>
+    </row>
+    <row r="16" spans="1:24" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="71" t="s">
+        <v>68</v>
+      </c>
+      <c r="B16" s="72"/>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="73"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="72"/>
+      <c r="I16" s="73"/>
+      <c r="J16" s="72"/>
+      <c r="K16" s="74"/>
+      <c r="M16" s="74"/>
+    </row>
+    <row r="17" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="B17" s="77"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="79" t="s">
+        <v>70</v>
+      </c>
+      <c r="E17" s="80" t="s">
+        <v>71</v>
+      </c>
+      <c r="F17" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" s="80" t="s">
+        <v>80</v>
+      </c>
+      <c r="H17" s="78"/>
+      <c r="I17" s="87" t="s">
+        <v>72</v>
+      </c>
+      <c r="J17" s="80" t="s">
+        <v>79</v>
+      </c>
+      <c r="K17" s="77"/>
+      <c r="L17" s="77"/>
+      <c r="M17" s="78"/>
+      <c r="N17" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="1:24" s="31" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
-      <c r="B14" s="85"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="85"/>
-      <c r="E14" s="85"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="85"/>
-      <c r="H14" s="85"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="86"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="85"/>
-      <c r="N14" s="85"/>
-      <c r="O14" s="85"/>
-      <c r="P14" s="86"/>
-      <c r="Q14" s="86"/>
-      <c r="R14" s="86"/>
-      <c r="S14" s="85"/>
-      <c r="T14" s="85"/>
-      <c r="U14" s="86"/>
-      <c r="V14" s="86"/>
-    </row>
-    <row r="15" spans="1:24" s="96" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A15" s="87" t="s">
+      <c r="O17" s="77"/>
+      <c r="P17" s="78"/>
+      <c r="Q17" s="76" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="90" t="s">
+      <c r="R17" s="77"/>
+      <c r="S17" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="E15" s="91" t="s">
+      <c r="T17" s="77"/>
+      <c r="U17" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="F15" s="90" t="s">
-        <v>54</v>
-      </c>
-      <c r="G15" s="92" t="s">
+      <c r="V17" s="78"/>
+      <c r="X17" s="78"/>
+    </row>
+    <row r="18" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="83" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="72"/>
+      <c r="C18" s="72"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="84"/>
+      <c r="J18" s="85"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="86"/>
+      <c r="M18" s="84"/>
+      <c r="N18" s="86"/>
+      <c r="O18" s="72"/>
+      <c r="W18"/>
+    </row>
+    <row r="19" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="83" t="s">
         <v>77</v>
       </c>
-      <c r="H15" s="93"/>
-      <c r="I15" s="90" t="s">
-        <v>78</v>
-      </c>
-      <c r="J15" s="87" t="s">
-        <v>79</v>
-      </c>
-      <c r="K15" s="94"/>
-      <c r="L15" s="88"/>
-      <c r="M15" s="89"/>
-      <c r="N15" s="87" t="s">
-        <v>56</v>
-      </c>
-      <c r="O15" s="88"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="87" t="s">
-        <v>57</v>
-      </c>
-      <c r="R15" s="88"/>
-      <c r="S15" s="87" t="s">
-        <v>80</v>
-      </c>
-      <c r="T15" s="94"/>
-      <c r="U15" s="87" t="s">
-        <v>81</v>
-      </c>
-      <c r="V15" s="95"/>
-      <c r="X15" s="89"/>
-    </row>
-    <row r="16" spans="1:24" s="101" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="97" t="s">
-        <v>82</v>
-      </c>
-      <c r="B16" s="98"/>
-      <c r="C16" s="98"/>
-      <c r="D16" s="98"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="98"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="98"/>
-      <c r="K16" s="100"/>
-      <c r="M16" s="100"/>
-    </row>
-    <row r="17" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="B17" s="103"/>
-      <c r="C17" s="104"/>
-      <c r="D17" s="105" t="s">
-        <v>84</v>
-      </c>
-      <c r="E17" s="106" t="s">
-        <v>85</v>
-      </c>
-      <c r="F17" s="114" t="s">
-        <v>96</v>
-      </c>
-      <c r="G17" s="106" t="s">
-        <v>98</v>
-      </c>
-      <c r="H17" s="104"/>
-      <c r="I17" s="113" t="s">
-        <v>86</v>
-      </c>
-      <c r="J17" s="106" t="s">
-        <v>97</v>
-      </c>
-      <c r="K17" s="103"/>
-      <c r="L17" s="103"/>
-      <c r="M17" s="104"/>
-      <c r="N17" s="106" t="s">
-        <v>87</v>
-      </c>
-      <c r="O17" s="103"/>
-      <c r="P17" s="104"/>
-      <c r="Q17" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="R17" s="103"/>
-      <c r="S17" s="107" t="s">
-        <v>89</v>
-      </c>
-      <c r="T17" s="103"/>
-      <c r="U17" s="108" t="s">
-        <v>90</v>
-      </c>
-      <c r="V17" s="104"/>
-      <c r="X17" s="104"/>
-    </row>
-    <row r="18" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="109" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" s="98"/>
-      <c r="C18" s="98"/>
-      <c r="D18" s="98"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="99"/>
-      <c r="I18" s="110"/>
-      <c r="J18" s="111"/>
-      <c r="K18" s="110"/>
-      <c r="L18" s="112"/>
-      <c r="M18" s="110"/>
-      <c r="N18" s="112"/>
-      <c r="O18" s="98"/>
-      <c r="W18"/>
-    </row>
-    <row r="19" spans="1:24" s="109" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="109" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="98"/>
-      <c r="C19" s="98"/>
-      <c r="D19" s="98"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="99"/>
-      <c r="I19" s="110"/>
-      <c r="J19" s="111"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="110"/>
-      <c r="N19" s="112"/>
-      <c r="O19" s="98"/>
-    </row>
-    <row r="20" spans="1:24" s="10" customFormat="1" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="66"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="115" t="s">
-        <v>63</v>
-      </c>
-      <c r="G20" s="67"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="66"/>
-      <c r="J20" s="116" t="s">
-        <v>64</v>
-      </c>
-      <c r="K20" s="116"/>
-      <c r="L20" s="66"/>
-      <c r="N20" s="68"/>
-      <c r="P20" s="66"/>
-      <c r="Q20" s="117" t="s">
-        <v>61</v>
-      </c>
-      <c r="R20" s="117"/>
-      <c r="S20" s="69"/>
-      <c r="T20" s="66"/>
-      <c r="U20" s="70"/>
-      <c r="V20" s="66"/>
-      <c r="W20" s="66"/>
-      <c r="X20" s="66" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="72"/>
-      <c r="E21" s="115"/>
-      <c r="F21" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="G21" s="72"/>
-      <c r="H21" s="72"/>
-      <c r="I21" s="72"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="M21" s="72"/>
-      <c r="N21" s="72"/>
-      <c r="O21" s="72"/>
-      <c r="P21" s="73"/>
-      <c r="Q21" s="117"/>
-      <c r="R21" s="117"/>
-      <c r="S21" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="T21" s="73"/>
-      <c r="U21" s="72"/>
-      <c r="V21" s="72"/>
-      <c r="W21"/>
-      <c r="X21" s="72"/>
-    </row>
-    <row r="22" spans="1:24" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
-      <c r="A22" s="13"/>
-      <c r="B22" s="74"/>
-      <c r="D22" s="75"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="75"/>
-      <c r="I22" s="13"/>
-      <c r="K22" s="76"/>
-      <c r="L22" s="75"/>
-      <c r="M22" s="75"/>
-      <c r="N22" s="75"/>
-      <c r="O22" s="75"/>
-      <c r="P22" s="75"/>
-      <c r="Q22" s="13"/>
-      <c r="S22" s="75"/>
-      <c r="T22" s="75"/>
-      <c r="U22" s="75"/>
-      <c r="X22" s="75"/>
+      <c r="B19" s="72"/>
+      <c r="C19" s="72"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="73"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="84"/>
+      <c r="J19" s="85"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="86"/>
+      <c r="M19" s="84"/>
+      <c r="N19" s="86"/>
+      <c r="O19" s="72"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D22" s="1"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="A23" s="1"/>
-      <c r="B23" s="78"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="66"/>
-      <c r="H23" s="1"/>
-      <c r="J23" s="116" t="s">
-        <v>67</v>
-      </c>
-      <c r="K23" s="116"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="70"/>
-      <c r="R23" s="1"/>
-      <c r="S23"/>
-      <c r="T23"/>
-      <c r="U23"/>
-      <c r="V23"/>
-      <c r="W23"/>
-      <c r="X23"/>
-    </row>
-    <row r="24" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="1"/>
-      <c r="B24" s="71" t="s">
-        <v>65</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="72"/>
-      <c r="E24" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="72"/>
-      <c r="H24" s="72"/>
-      <c r="I24" s="72"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="M24" s="73"/>
-      <c r="N24" s="72"/>
-      <c r="O24" s="72"/>
-      <c r="P24" s="72"/>
-      <c r="R24" s="1"/>
-      <c r="S24"/>
-      <c r="T24"/>
-      <c r="U24"/>
-      <c r="V24"/>
-      <c r="W24"/>
-      <c r="X24"/>
-    </row>
-    <row r="25" spans="1:24" s="11" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="13"/>
-      <c r="B25" s="74"/>
-      <c r="D25" s="75"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="77"/>
-      <c r="G25" s="75"/>
-      <c r="I25" s="13"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="75"/>
-      <c r="M25" s="75"/>
-      <c r="N25" s="75"/>
-      <c r="O25" s="75"/>
-      <c r="P25" s="75"/>
-      <c r="Q25" s="13"/>
-      <c r="X25" s="75"/>
-    </row>
-    <row r="26" spans="1:24" ht="17.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="1"/>
-      <c r="B26" s="78"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="D26" s="1"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="66"/>
-      <c r="H26" s="1"/>
-      <c r="J26"/>
-      <c r="K26" s="34"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="70"/>
-      <c r="R26" s="1"/>
-      <c r="S26"/>
-      <c r="T26"/>
-      <c r="U26"/>
-      <c r="V26"/>
-      <c r="W26"/>
-      <c r="X26"/>
-    </row>
-    <row r="27" spans="1:24" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1"/>
-      <c r="B27" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="D27" s="72"/>
-      <c r="E27" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>95</v>
-      </c>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="72"/>
-      <c r="J27" s="72"/>
-      <c r="K27" s="72"/>
-      <c r="L27" s="72"/>
-      <c r="M27" s="72"/>
-      <c r="N27" s="72"/>
-      <c r="O27" s="72"/>
-      <c r="R27" s="1"/>
-      <c r="S27"/>
-      <c r="T27"/>
-      <c r="U27"/>
-      <c r="V27"/>
-      <c r="W27"/>
-      <c r="X27"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D28" s="2"/>
+      <c r="D28" s="1"/>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D29" s="2"/>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D30" s="2"/>
+      <c r="D30" s="1"/>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D31" s="2"/>
+      <c r="D31" s="1"/>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.2">
-      <c r="D32" s="2"/>
+      <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D33" s="2"/>
+      <c r="D33" s="1"/>
     </row>
     <row r="34" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D34" s="2"/>
+      <c r="D34" s="1"/>
     </row>
     <row r="35" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D35" s="2"/>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D36" s="2"/>
+      <c r="D36" s="1"/>
     </row>
     <row r="37" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D37" s="2"/>
+      <c r="D37" s="1"/>
     </row>
     <row r="38" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D38" s="2"/>
+      <c r="D38" s="1"/>
     </row>
     <row r="39" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D39" s="2"/>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D40" s="2"/>
+      <c r="D40" s="1"/>
     </row>
     <row r="41" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D41" s="2"/>
+      <c r="D41" s="1"/>
     </row>
     <row r="42" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D42" s="2"/>
+      <c r="D42" s="1"/>
     </row>
     <row r="43" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D43" s="2"/>
+      <c r="D43" s="1"/>
     </row>
     <row r="44" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D44" s="2"/>
+      <c r="D44" s="1"/>
     </row>
     <row r="45" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D45" s="2"/>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D46" s="2"/>
+      <c r="D46" s="1"/>
     </row>
     <row r="47" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D47" s="2"/>
+      <c r="D47" s="1"/>
     </row>
     <row r="48" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D48" s="2"/>
+      <c r="D48" s="1"/>
     </row>
     <row r="49" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D49" s="2"/>
+      <c r="D49" s="1"/>
     </row>
     <row r="50" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D50" s="2"/>
+      <c r="D50" s="1"/>
     </row>
     <row r="51" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D51" s="2"/>
+      <c r="D51" s="1"/>
     </row>
     <row r="52" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D52" s="2"/>
+      <c r="D52" s="1"/>
     </row>
     <row r="53" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D53" s="2"/>
+      <c r="D53" s="1"/>
     </row>
     <row r="54" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D54" s="2"/>
+      <c r="D54" s="1"/>
     </row>
     <row r="55" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D55" s="2"/>
+      <c r="D55" s="1"/>
     </row>
     <row r="56" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D56" s="2"/>
+      <c r="D56" s="1"/>
     </row>
     <row r="57" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D57" s="2"/>
+      <c r="D57" s="1"/>
     </row>
     <row r="58" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D58" s="2"/>
+      <c r="D58" s="1"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D59" s="2"/>
+      <c r="D59" s="1"/>
     </row>
     <row r="60" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D60" s="2"/>
+      <c r="D60" s="1"/>
     </row>
     <row r="61" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D61" s="2"/>
+      <c r="D61" s="1"/>
     </row>
     <row r="62" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D62" s="2"/>
+      <c r="D62" s="1"/>
     </row>
     <row r="63" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D63" s="2"/>
+      <c r="D63" s="1"/>
     </row>
     <row r="64" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D64" s="2"/>
+      <c r="D64" s="1"/>
     </row>
     <row r="65" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D65" s="2"/>
+      <c r="D65" s="1"/>
     </row>
     <row r="66" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D66" s="2"/>
+      <c r="D66" s="1"/>
     </row>
     <row r="67" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D67" s="2"/>
+      <c r="D67" s="1"/>
     </row>
     <row r="68" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D68" s="2"/>
+      <c r="D68" s="1"/>
     </row>
     <row r="69" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D69" s="2"/>
+      <c r="D69" s="1"/>
     </row>
     <row r="70" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D70" s="2"/>
+      <c r="D70" s="1"/>
     </row>
     <row r="71" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D71" s="2"/>
+      <c r="D71" s="1"/>
     </row>
     <row r="72" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D72" s="2"/>
+      <c r="D72" s="1"/>
     </row>
     <row r="73" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D73" s="2"/>
+      <c r="D73" s="1"/>
     </row>
     <row r="74" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D74" s="2"/>
+      <c r="D74" s="1"/>
     </row>
     <row r="75" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D75" s="2"/>
+      <c r="D75" s="1"/>
     </row>
     <row r="76" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D76" s="2"/>
+      <c r="D76" s="1"/>
     </row>
     <row r="77" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D77" s="2"/>
+      <c r="D77" s="1"/>
     </row>
     <row r="78" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D78" s="2"/>
+      <c r="D78" s="1"/>
     </row>
     <row r="79" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D79" s="2"/>
+      <c r="D79" s="1"/>
     </row>
     <row r="80" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D80" s="2"/>
+      <c r="D80" s="1"/>
     </row>
     <row r="81" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D81" s="2"/>
+      <c r="D81" s="1"/>
     </row>
     <row r="82" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D82" s="2"/>
+      <c r="D82" s="1"/>
     </row>
     <row r="83" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D83" s="2"/>
+      <c r="D83" s="1"/>
     </row>
     <row r="84" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D84" s="2"/>
+      <c r="D84" s="1"/>
     </row>
     <row r="85" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D85" s="2"/>
+      <c r="D85" s="1"/>
     </row>
     <row r="86" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D86" s="2"/>
+      <c r="D86" s="1"/>
     </row>
     <row r="87" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D87" s="2"/>
+      <c r="D87" s="1"/>
     </row>
     <row r="88" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D88" s="2"/>
+      <c r="D88" s="1"/>
     </row>
     <row r="89" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D89" s="2"/>
+      <c r="D89" s="1"/>
     </row>
     <row r="90" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D90" s="2"/>
+      <c r="D90" s="1"/>
     </row>
     <row r="91" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D91" s="2"/>
+      <c r="D91" s="1"/>
     </row>
     <row r="92" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D92" s="2"/>
+      <c r="D92" s="1"/>
     </row>
     <row r="93" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D93" s="2"/>
+      <c r="D93" s="1"/>
     </row>
     <row r="94" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D94" s="2"/>
+      <c r="D94" s="1"/>
     </row>
     <row r="95" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D95" s="2"/>
+      <c r="D95" s="1"/>
     </row>
     <row r="96" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D96" s="2"/>
+      <c r="D96" s="1"/>
     </row>
     <row r="97" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D97" s="2"/>
+      <c r="D97" s="1"/>
     </row>
     <row r="98" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D98" s="2"/>
+      <c r="D98" s="1"/>
     </row>
     <row r="99" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D99" s="2"/>
+      <c r="D99" s="1"/>
     </row>
     <row r="100" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D100" s="2"/>
+      <c r="D100" s="1"/>
     </row>
     <row r="101" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D101" s="2"/>
+      <c r="D101" s="1"/>
     </row>
     <row r="102" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D102" s="2"/>
+      <c r="D102" s="1"/>
     </row>
     <row r="103" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D103" s="2"/>
+      <c r="D103" s="1"/>
     </row>
     <row r="104" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D104" s="2"/>
+      <c r="D104" s="1"/>
     </row>
     <row r="105" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D105" s="2"/>
+      <c r="D105" s="1"/>
     </row>
     <row r="106" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D106" s="2"/>
+      <c r="D106" s="1"/>
     </row>
     <row r="107" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D107" s="2"/>
+      <c r="D107" s="1"/>
     </row>
     <row r="108" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D108" s="2"/>
+      <c r="D108" s="1"/>
     </row>
     <row r="109" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D117" s="2"/>
+      <c r="D109" s="1"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="12">
+  <mergeCells count="8">
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="U6:U7"/>
     <mergeCell ref="V6:V7"/>
     <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="J20:K21"/>
-    <mergeCell ref="Q20:R21"/>
-    <mergeCell ref="J23:K24"/>
     <mergeCell ref="K6:M6"/>
     <mergeCell ref="O6:Q6"/>
   </mergeCells>
-  <conditionalFormatting sqref="C10:D10 D9:E9">
-    <cfRule type="expression" dxfId="3" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="C16:D16">
+    <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+      <formula>AND((#REF!),#REF!,#REF!)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D9:E9 C10:D10">
+    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:F14">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D16">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
-      <formula>AND((#REF!),#REF!,#REF!)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C16:D16">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="3" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation showErrorMessage="1" sqref="K4 F24 C24 C21 S21 L21 F21 L24 C27 F27"/>
-    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G10 G20 H11:H14">
+    <dataValidation showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showErrorMessage="1" sqref="G10 H11:H14" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H9"/>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16">
+    <dataValidation allowBlank="1" showErrorMessage="1" sqref="H9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H16" xr:uid="{00000000-0002-0000-0000-000003000000}">
       <formula1>0</formula1>
       <formula2>200</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" display="www.federation.org"/>
-    <hyperlink ref="A4" r:id="rId2" display="records@federation.org"/>
+    <hyperlink ref="A3" r:id="rId1" display="www.federation.org" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A4" r:id="rId2" display="records@federation.org" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.39370078740157483" header="0.51181102362204722" footer="0.31496062992125984"/>
+  <pageMargins left="0.31496062992125984" right="0.35433070866141736" top="0.39370078740157483" bottom="0.47244094488188981" header="0.51181102362204722" footer="0.23622047244094491"/>
   <pageSetup scale="66" firstPageNumber="0" fitToHeight="0" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>

--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6644A18-530F-47CE-8D74-1BCD9FA013C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0D170-2C89-4B88-96D2-B487D68E78C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="735" yWindow="735" windowWidth="23625" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -224,9 +224,6 @@
     <t>${t.get("Results.Rank")}</t>
   </si>
   <si>
-    <t>${t.get("smm")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.Sinclair")}</t>
   </si>
   <si>
@@ -303,6 +300,9 @@
   </si>
   <si>
     <t>${r.resRecordLift}</t>
+  </si>
+  <si>
+    <t>${t.get("smhf")}</t>
   </si>
 </sst>
 </file>
@@ -1586,7 +1586,7 @@
   <dimension ref="A1:X109"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="V6" sqref="V6:V7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1690,7 +1690,7 @@
         <v>36</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
@@ -1773,10 +1773,10 @@
         <v>53</v>
       </c>
       <c r="U6" s="95" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="V6" s="97" t="s">
-        <v>54</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1830,7 +1830,7 @@
         <v>3</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="S7" s="94"/>
       <c r="T7" s="92"/>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="13" spans="1:24" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="J13" s="22"/>
     </row>
@@ -2021,28 +2021,28 @@
     </row>
     <row r="15" spans="1:24" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
+        <v>60</v>
+      </c>
+      <c r="E15" s="65" t="s">
         <v>61</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>62</v>
       </c>
       <c r="F15" s="64" t="s">
         <v>48</v>
       </c>
       <c r="G15" s="66" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="64" t="s">
+        <v>63</v>
+      </c>
+      <c r="J15" s="61" t="s">
         <v>64</v>
-      </c>
-      <c r="J15" s="61" t="s">
-        <v>65</v>
       </c>
       <c r="K15" s="68"/>
       <c r="L15" s="62"/>
@@ -2057,18 +2057,18 @@
       </c>
       <c r="R15" s="62"/>
       <c r="S15" s="61" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="T15" s="68"/>
       <c r="U15" s="61" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="V15" s="69"/>
       <c r="X15" s="63"/>
     </row>
     <row r="16" spans="1:24" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -2084,47 +2084,47 @@
     </row>
     <row r="17" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
       <c r="D17" s="79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E17" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="80" t="s">
-        <v>71</v>
-      </c>
       <c r="F17" s="88" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G17" s="80" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H17" s="78"/>
       <c r="I17" s="87" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K17" s="77"/>
       <c r="L17" s="77"/>
       <c r="M17" s="78"/>
       <c r="N17" s="80" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="76" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="R17" s="77"/>
       <c r="S17" s="81" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="V17" s="78"/>
       <c r="X17" s="78"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="19" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>

--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD0D170-2C89-4B88-96D2-B487D68E78C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F691B83-B40C-415D-84CA-6D4A85AC14B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="735" yWindow="735" windowWidth="23625" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-26565" yWindow="2580" windowWidth="24225" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="CategoryFilter">Results!#REF!</definedName>
     <definedName name="CLUB">Results!#REF!</definedName>
     <definedName name="Collet">#REF!</definedName>
-    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$BZ$83</definedName>
+    <definedName name="_xlnm.Criteria" localSheetId="0">Results!$A$1:$BZ$82</definedName>
     <definedName name="demandé">Results!#REF!</definedName>
     <definedName name="dernier">Results!#REF!</definedName>
     <definedName name="essais">Results!#REF!</definedName>
@@ -152,9 +152,6 @@
     <t>${l.rank &lt; 0 ? "inv." : (l.rank &gt; 0 ? l.medalRank : "" )}</t>
   </si>
   <si>
-    <t>${l.sinclair}</t>
-  </si>
-  <si>
     <t>${l.mastersLongCategory}</t>
   </si>
   <si>
@@ -224,9 +221,6 @@
     <t>${t.get("Results.Rank")}</t>
   </si>
   <si>
-    <t>${t.get("Results.Sinclair")}</t>
-  </si>
-  <si>
     <t>${t.get("Results.CJ_abbrev")}</t>
   </si>
   <si>
@@ -303,6 +297,12 @@
   </si>
   <si>
     <t>${t.get("smhf")}</t>
+  </si>
+  <si>
+    <t>${t.get("Ranking.QAGE")}</t>
+  </si>
+  <si>
+    <t>${l.qAge}</t>
   </si>
 </sst>
 </file>
@@ -1048,6 +1048,22 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1056,6 +1072,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1075,26 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="19">
@@ -1583,10 +1583,10 @@
   <sheetPr codeName="Feuil4">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X109"/>
+  <dimension ref="A1:X108"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="V6" sqref="V6:V7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1627,7 +1627,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
@@ -1656,7 +1656,7 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K2" s="58" t="s">
         <v>25</v>
@@ -1668,7 +1668,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>19</v>
@@ -1687,10 +1687,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
@@ -1699,7 +1699,7 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="S3" s="41" t="s">
         <v>20</v>
@@ -1721,7 +1721,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
       <c r="J4" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K4" s="48" t="s">
         <v>21</v>
@@ -1750,63 +1750,63 @@
       <c r="H6" s="47"/>
       <c r="I6" s="5"/>
       <c r="J6" s="47"/>
-      <c r="K6" s="99" t="s">
+      <c r="K6" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" s="95"/>
+      <c r="M6" s="92"/>
+      <c r="N6" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L6" s="101"/>
-      <c r="M6" s="100"/>
-      <c r="N6" s="49" t="s">
+      <c r="O6" s="91" t="s">
         <v>40</v>
       </c>
-      <c r="O6" s="99" t="s">
+      <c r="P6" s="95"/>
+      <c r="Q6" s="92"/>
+      <c r="R6" s="50" t="s">
+        <v>39</v>
+      </c>
+      <c r="S6" s="98" t="s">
         <v>41</v>
       </c>
-      <c r="P6" s="101"/>
-      <c r="Q6" s="100"/>
-      <c r="R6" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="S6" s="93" t="s">
-        <v>42</v>
-      </c>
-      <c r="T6" s="91" t="s">
-        <v>53</v>
-      </c>
-      <c r="U6" s="95" t="s">
-        <v>54</v>
-      </c>
-      <c r="V6" s="97" t="s">
-        <v>80</v>
+      <c r="T6" s="96" t="s">
+        <v>52</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>79</v>
+      </c>
+      <c r="V6" s="89" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="51" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="C7" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>45</v>
       </c>
-      <c r="D7" s="51" t="s">
+      <c r="E7" s="91" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="99" t="s">
+      <c r="F7" s="92"/>
+      <c r="G7" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="100"/>
-      <c r="G7" s="52" t="s">
+      <c r="H7" s="51" t="s">
         <v>48</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="I7" s="53" t="s">
         <v>49</v>
       </c>
-      <c r="I7" s="53" t="s">
+      <c r="J7" s="51" t="s">
         <v>50</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>51</v>
       </c>
       <c r="K7" s="51">
         <v>1</v>
@@ -1818,7 +1818,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="51">
         <v>1</v>
@@ -1830,12 +1830,12 @@
         <v>3</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="S7" s="94"/>
-      <c r="T7" s="92"/>
-      <c r="U7" s="96"/>
-      <c r="V7" s="98"/>
+        <v>53</v>
+      </c>
+      <c r="S7" s="99"/>
+      <c r="T7" s="97"/>
+      <c r="U7" s="101"/>
+      <c r="V7" s="90"/>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
@@ -1872,12 +1872,12 @@
       <c r="D9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="89" t="s">
+      <c r="E9" s="93" t="s">
         <v>5</v>
       </c>
-      <c r="F9" s="90"/>
+      <c r="F9" s="94"/>
       <c r="G9" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
@@ -1886,7 +1886,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>11</v>
@@ -1919,7 +1919,7 @@
         <v>29</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="V9" s="17" t="s">
         <v>28</v>
@@ -1970,7 +1970,7 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="13" spans="1:24" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J13" s="22"/>
     </row>
@@ -2021,54 +2021,54 @@
     </row>
     <row r="15" spans="1:24" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="61" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>59</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>47</v>
+      </c>
+      <c r="G15" s="66" t="s">
         <v>60</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>48</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>62</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="64" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="K15" s="68"/>
       <c r="L15" s="62"/>
       <c r="M15" s="63"/>
       <c r="N15" s="61" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="69"/>
       <c r="Q15" s="61" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="R15" s="62"/>
       <c r="S15" s="61" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="T15" s="68"/>
       <c r="U15" s="61" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="V15" s="69"/>
       <c r="X15" s="63"/>
     </row>
     <row r="16" spans="1:24" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="71" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -2084,47 +2084,47 @@
     </row>
     <row r="17" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="76" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
       <c r="D17" s="79" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F17" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>77</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>79</v>
       </c>
       <c r="H17" s="78"/>
       <c r="I17" s="87" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="K17" s="77"/>
       <c r="L17" s="77"/>
       <c r="M17" s="78"/>
       <c r="N17" s="80" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="76" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="R17" s="77"/>
       <c r="S17" s="81" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="82" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="V17" s="78"/>
       <c r="X17" s="78"/>
@@ -2151,7 +2151,7 @@
     </row>
     <row r="19" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="83" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -2435,20 +2435,17 @@
     <row r="108" spans="4:4" x14ac:dyDescent="0.2">
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="4:4" x14ac:dyDescent="0.2">
-      <c r="D109" s="1"/>
-    </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="8">
+    <mergeCell ref="V6:V7"/>
+    <mergeCell ref="E7:F7"/>
     <mergeCell ref="E9:F9"/>
+    <mergeCell ref="K6:M6"/>
+    <mergeCell ref="O6:Q6"/>
     <mergeCell ref="T6:T7"/>
     <mergeCell ref="S6:S7"/>
     <mergeCell ref="U6:U7"/>
-    <mergeCell ref="V6:V7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="K6:M6"/>
-    <mergeCell ref="O6:Q6"/>
   </mergeCells>
   <conditionalFormatting sqref="C16:D16">
     <cfRule type="expression" dxfId="3" priority="1" stopIfTrue="1">
@@ -2459,7 +2456,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9:E9 C10:D10">
-    <cfRule type="expression" dxfId="1" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="7" stopIfTrue="1">
       <formula>AND((#REF!),#REF!,#REF!)</formula>
     </cfRule>
   </conditionalFormatting>

--- a/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
+++ b/owlcms/src/main/resources/templates/competitionResults/MastersResults-LETTER.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lamyj\git\owlcms4\owlcms\src\main\resources\templates\competitionResults\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/scottgonzalez/Projects/Misc/owlcms4/owlcms/src/main/resources/templates/competitionResults/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F691B83-B40C-415D-84CA-6D4A85AC14B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB08E99-476A-D348-B53D-E3CD50330A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26565" yWindow="2580" windowWidth="24225" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1460" yWindow="500" windowWidth="75340" windowHeight="23500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="79">
   <si>
     <t>&lt;jx:forEach items="${lifters}" var="l" varStatus="lifterLoop"&gt;</t>
   </si>
@@ -125,9 +125,6 @@
     <t>${competition.competitionOrganizer}</t>
   </si>
   <si>
-    <t>${session.name}</t>
-  </si>
-  <si>
     <t>${competition.federation}</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t xml:space="preserve">${t.get("Competition.competitionOrganizer")} : </t>
-  </si>
-  <si>
-    <t>${t.get("Group")} :</t>
   </si>
   <si>
     <t>${t.get("Results.Snatch")}</t>
@@ -1585,38 +1579,36 @@
   </sheetPr>
   <dimension ref="A1:X108"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.85546875" customWidth="1"/>
-    <col min="2" max="2" width="5.42578125" customWidth="1"/>
-    <col min="3" max="3" width="5.28515625" customWidth="1"/>
-    <col min="4" max="4" width="22.7109375" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.28515625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="1" customWidth="1"/>
-    <col min="11" max="12" width="7.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="7.7109375" style="3" customWidth="1"/>
-    <col min="15" max="17" width="7.7109375" style="1" customWidth="1"/>
-    <col min="18" max="18" width="7.7109375" customWidth="1"/>
-    <col min="19" max="19" width="7.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="8.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="1" customWidth="1"/>
-    <col min="22" max="22" width="8.5703125" style="1" customWidth="1"/>
-    <col min="23" max="23" width="8.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" customWidth="1"/>
+    <col min="2" max="2" width="5.5" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="7.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="1" customWidth="1"/>
+    <col min="11" max="12" width="7.6640625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.6640625" customWidth="1"/>
+    <col min="14" max="14" width="7.6640625" style="3" customWidth="1"/>
+    <col min="15" max="17" width="7.6640625" style="1" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="7.6640625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="8.5" style="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="8.5" style="1" customWidth="1"/>
+    <col min="23" max="23" width="8.1640625" style="1" hidden="1" customWidth="1"/>
     <col min="24" max="24" width="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B1" s="22"/>
       <c r="C1" s="21"/>
@@ -1627,7 +1619,7 @@
       <c r="H1" s="1"/>
       <c r="I1" s="2"/>
       <c r="J1" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>18</v>
@@ -1647,7 +1639,7 @@
     </row>
     <row r="2" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B2" s="30"/>
       <c r="C2" s="31"/>
@@ -1656,10 +1648,10 @@
       <c r="H2" s="1"/>
       <c r="I2" s="2"/>
       <c r="J2" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K2" s="58" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="L2" s="32"/>
       <c r="M2" s="33"/>
@@ -1668,7 +1660,7 @@
       <c r="P2" s="35"/>
       <c r="Q2" s="36"/>
       <c r="R2" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S2" s="37" t="s">
         <v>19</v>
@@ -1677,9 +1669,9 @@
       <c r="U2" s="38"/>
       <c r="X2" s="1"/>
     </row>
-    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="40"/>
       <c r="E3"/>
@@ -1687,10 +1679,10 @@
       <c r="H3" s="1"/>
       <c r="I3" s="2"/>
       <c r="J3" s="24" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="58" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L3" s="32"/>
       <c r="M3" s="33"/>
@@ -1699,7 +1691,7 @@
       <c r="P3" s="35"/>
       <c r="Q3" s="36"/>
       <c r="R3" s="24" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="S3" s="41" t="s">
         <v>20</v>
@@ -1709,9 +1701,9 @@
       <c r="V3" s="43"/>
       <c r="X3" s="1"/>
     </row>
-    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="39"/>
       <c r="C4" s="44"/>
@@ -1720,12 +1712,8 @@
       <c r="F4"/>
       <c r="H4" s="1"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="24" t="s">
-        <v>37</v>
-      </c>
-      <c r="K4" s="48" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="24"/>
+      <c r="K4" s="48"/>
       <c r="L4"/>
       <c r="M4" s="3"/>
       <c r="N4" s="1"/>
@@ -1734,14 +1722,14 @@
       <c r="S4" s="46"/>
       <c r="X4" s="1"/>
     </row>
-    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="K5" s="56"/>
       <c r="L5" s="56"/>
       <c r="M5" s="57"/>
       <c r="N5" s="26"/>
       <c r="O5" s="56"/>
     </row>
-    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="47"/>
       <c r="B6" s="1"/>
       <c r="C6" s="48"/>
@@ -1751,62 +1739,62 @@
       <c r="I6" s="5"/>
       <c r="J6" s="47"/>
       <c r="K6" s="91" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="L6" s="95"/>
       <c r="M6" s="92"/>
       <c r="N6" s="49" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="O6" s="91" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="P6" s="95"/>
       <c r="Q6" s="92"/>
       <c r="R6" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="S6" s="98" t="s">
         <v>39</v>
       </c>
-      <c r="S6" s="98" t="s">
+      <c r="T6" s="96" t="s">
+        <v>50</v>
+      </c>
+      <c r="U6" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="V6" s="89" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="51" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="T6" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="U6" s="100" t="s">
-        <v>79</v>
-      </c>
-      <c r="V6" s="89" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="51" t="s">
+      <c r="C7" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="51" t="s">
+      <c r="D7" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="51" t="s">
+      <c r="E7" s="91" t="s">
         <v>44</v>
-      </c>
-      <c r="D7" s="51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E7" s="91" t="s">
-        <v>46</v>
       </c>
       <c r="F7" s="92"/>
       <c r="G7" s="52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="H7" s="51" t="s">
+      <c r="J7" s="51" t="s">
         <v>48</v>
-      </c>
-      <c r="I7" s="53" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="51" t="s">
-        <v>50</v>
       </c>
       <c r="K7" s="51">
         <v>1</v>
@@ -1818,7 +1806,7 @@
         <v>3</v>
       </c>
       <c r="N7" s="54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O7" s="51">
         <v>1</v>
@@ -1830,14 +1818,14 @@
         <v>3</v>
       </c>
       <c r="R7" s="55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="S7" s="99"/>
       <c r="T7" s="97"/>
       <c r="U7" s="101"/>
       <c r="V7" s="90"/>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1859,12 +1847,12 @@
       <c r="V8"/>
       <c r="W8"/>
     </row>
-    <row r="9" spans="1:24" s="8" customFormat="1" ht="21.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" s="8" customFormat="1" ht="21.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>2</v>
@@ -1877,7 +1865,7 @@
       </c>
       <c r="F9" s="94"/>
       <c r="G9" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>17</v>
@@ -1886,7 +1874,7 @@
         <v>6</v>
       </c>
       <c r="J9" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="11" t="s">
         <v>11</v>
@@ -1916,19 +1904,19 @@
         <v>7</v>
       </c>
       <c r="T9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="U9" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="V9" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="W9" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -1950,7 +1938,7 @@
       <c r="V10"/>
       <c r="W10"/>
     </row>
-    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="E11"/>
       <c r="F11"/>
       <c r="G11"/>
@@ -1968,9 +1956,9 @@
       <c r="V11"/>
       <c r="W11"/>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.15">
       <c r="A12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E12"/>
       <c r="F12"/>
@@ -1989,13 +1977,13 @@
       <c r="V12"/>
       <c r="W12"/>
     </row>
-    <row r="13" spans="1:24" s="21" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" s="21" customFormat="1" ht="14" x14ac:dyDescent="0.15">
       <c r="A13" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="J13" s="22"/>
     </row>
-    <row r="14" spans="1:24" s="21" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" s="21" customFormat="1" ht="6.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="59"/>
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
@@ -2019,56 +2007,56 @@
       <c r="U14" s="60"/>
       <c r="V14" s="60"/>
     </row>
-    <row r="15" spans="1:24" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" s="70" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A15" s="61" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B15" s="62"/>
       <c r="C15" s="63"/>
       <c r="D15" s="64" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="G15" s="66" t="s">
         <v>58</v>
-      </c>
-      <c r="E15" s="65" t="s">
-        <v>59</v>
-      </c>
-      <c r="F15" s="64" t="s">
-        <v>47</v>
-      </c>
-      <c r="G15" s="66" t="s">
-        <v>60</v>
       </c>
       <c r="H15" s="67"/>
       <c r="I15" s="64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="J15" s="61" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="K15" s="68"/>
       <c r="L15" s="62"/>
       <c r="M15" s="63"/>
       <c r="N15" s="61" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="69"/>
       <c r="Q15" s="61" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="R15" s="62"/>
       <c r="S15" s="61" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T15" s="68"/>
       <c r="U15" s="61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="V15" s="69"/>
       <c r="X15" s="63"/>
     </row>
-    <row r="16" spans="1:24" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" s="75" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="71" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B16" s="72"/>
       <c r="C16" s="72"/>
@@ -2082,54 +2070,54 @@
       <c r="K16" s="74"/>
       <c r="M16" s="74"/>
     </row>
-    <row r="17" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="76" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="77"/>
       <c r="C17" s="78"/>
       <c r="D17" s="79" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E17" s="80" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F17" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="G17" s="80" t="s">
         <v>75</v>
-      </c>
-      <c r="G17" s="80" t="s">
-        <v>77</v>
       </c>
       <c r="H17" s="78"/>
       <c r="I17" s="87" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="J17" s="80" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="K17" s="77"/>
       <c r="L17" s="77"/>
       <c r="M17" s="78"/>
       <c r="N17" s="80" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="O17" s="77"/>
       <c r="P17" s="78"/>
       <c r="Q17" s="76" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="R17" s="77"/>
       <c r="S17" s="81" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="T17" s="77"/>
       <c r="U17" s="82" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="V17" s="78"/>
       <c r="X17" s="78"/>
     </row>
-    <row r="18" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A18" s="83" t="s">
         <v>1</v>
       </c>
@@ -2149,9 +2137,9 @@
       <c r="O18" s="72"/>
       <c r="W18"/>
     </row>
-    <row r="19" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" s="83" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A19" s="83" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B19" s="72"/>
       <c r="C19" s="72"/>
@@ -2168,271 +2156,271 @@
       <c r="N19" s="86"/>
       <c r="O19" s="72"/>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.15">
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="4:4" x14ac:dyDescent="0.15">
       <c r="D108" s="1"/>
     </row>
   </sheetData>
